--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Checkout\Downloads\Workspace\datastructure-algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\datastructure-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358748F-74C7-44C7-B7DD-0665172FAA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BB68D-8561-4F7F-A381-C27F9BD98168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,14 +1425,14 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>yes</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,6 +1494,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1516,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1546,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1855,46 +1862,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="109.625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="10" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="5" spans="1:5">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1904,11 +1915,14 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+      <c r="D6" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1918,11 +1932,14 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1932,11 +1949,14 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+      <c r="D8" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1946,11 +1966,14 @@
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1960,11 +1983,14 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1974,11 +2000,14 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1988,11 +2017,14 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
+      <c r="D12" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2002,11 +2034,14 @@
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
+      <c r="D13" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2016,11 +2051,14 @@
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
+      <c r="D14" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2030,11 +2068,14 @@
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2044,11 +2085,14 @@
       <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21">
+      <c r="D16" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2058,11 +2102,14 @@
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+      <c r="D17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2072,11 +2119,14 @@
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21">
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2086,11 +2136,12 @@
       <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2100,11 +2151,12 @@
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2114,11 +2166,12 @@
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21">
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2128,11 +2181,14 @@
       <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21">
+      <c r="D22" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2142,11 +2198,12 @@
       <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21">
+      <c r="D23" s="6"/>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2156,11 +2213,12 @@
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21">
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2170,11 +2228,12 @@
       <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21">
+      <c r="D25" s="6"/>
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2184,11 +2243,12 @@
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21">
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2198,11 +2258,12 @@
       <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21">
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2212,11 +2273,12 @@
       <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2226,11 +2288,12 @@
       <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2240,11 +2303,12 @@
       <c r="C30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21">
       <c r="A31">
         <v>26</v>
       </c>
@@ -2254,11 +2318,12 @@
       <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21">
       <c r="A32">
         <v>27</v>
       </c>
@@ -2268,11 +2333,12 @@
       <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21">
       <c r="A33">
         <v>28</v>
       </c>
@@ -2282,11 +2348,12 @@
       <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
       <c r="A34">
         <v>29</v>
       </c>
@@ -2296,11 +2363,12 @@
       <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21">
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2310,11 +2378,12 @@
       <c r="C35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21">
+      <c r="D35" s="6"/>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21">
       <c r="A36">
         <v>31</v>
       </c>
@@ -2324,11 +2393,12 @@
       <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21">
+      <c r="D36" s="6"/>
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21">
       <c r="A37">
         <v>32</v>
       </c>
@@ -2338,11 +2408,12 @@
       <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21">
+      <c r="D37" s="6"/>
+      <c r="E37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21">
       <c r="A38">
         <v>33</v>
       </c>
@@ -2352,11 +2423,12 @@
       <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="21">
+      <c r="D38" s="6"/>
+      <c r="E38" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2366,11 +2438,12 @@
       <c r="C39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21">
+      <c r="D39" s="6"/>
+      <c r="E39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21">
       <c r="A40">
         <v>35</v>
       </c>
@@ -2380,11 +2453,12 @@
       <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21">
+      <c r="D40" s="6"/>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2394,30 +2468,33 @@
       <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="21">
+      <c r="D41" s="6"/>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21">
       <c r="A42">
         <v>37</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="21">
+      <c r="D42" s="7"/>
+      <c r="E42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="21">
+      <c r="D43" s="7"/>
+      <c r="E43" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21">
       <c r="A44">
         <v>39</v>
       </c>
@@ -2427,11 +2504,12 @@
       <c r="C44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
+      <c r="D44" s="6"/>
+      <c r="E44" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21">
       <c r="A45">
         <v>40</v>
       </c>
@@ -2441,11 +2519,12 @@
       <c r="C45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21">
+      <c r="D45" s="6"/>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21">
       <c r="A46">
         <v>41</v>
       </c>
@@ -2455,11 +2534,12 @@
       <c r="C46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="21">
+      <c r="D46" s="6"/>
+      <c r="E46" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21">
       <c r="A47">
         <v>42</v>
       </c>
@@ -2469,11 +2549,12 @@
       <c r="C47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21">
+      <c r="D47" s="6"/>
+      <c r="E47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21">
       <c r="A48">
         <v>43</v>
       </c>
@@ -2483,11 +2564,12 @@
       <c r="C48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21">
+      <c r="D48" s="6"/>
+      <c r="E48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21">
       <c r="A49">
         <v>44</v>
       </c>
@@ -2497,11 +2579,12 @@
       <c r="C49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21">
+      <c r="D49" s="6"/>
+      <c r="E49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21">
       <c r="A50">
         <v>45</v>
       </c>
@@ -2511,11 +2594,12 @@
       <c r="C50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21">
+      <c r="D50" s="6"/>
+      <c r="E50" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21">
       <c r="A51">
         <v>46</v>
       </c>
@@ -2525,11 +2609,12 @@
       <c r="C51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21">
+      <c r="D51" s="6"/>
+      <c r="E51" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21">
       <c r="A52">
         <v>47</v>
       </c>
@@ -2539,11 +2624,12 @@
       <c r="C52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="21">
+      <c r="D52" s="6"/>
+      <c r="E52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21">
       <c r="A53">
         <v>48</v>
       </c>
@@ -2553,24 +2639,26 @@
       <c r="C53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="6"/>
+      <c r="E53" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:5" ht="21">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="21">
+      <c r="D55" s="7"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="21">
       <c r="A56">
         <v>51</v>
       </c>
@@ -2580,11 +2668,12 @@
       <c r="C56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="21">
+      <c r="D56" s="6"/>
+      <c r="E56" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21">
       <c r="A57">
         <v>52</v>
       </c>
@@ -2594,11 +2683,12 @@
       <c r="C57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21">
+      <c r="D57" s="6"/>
+      <c r="E57" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21">
       <c r="A58">
         <v>53</v>
       </c>
@@ -2608,11 +2698,12 @@
       <c r="C58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="21">
+      <c r="D58" s="6"/>
+      <c r="E58" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21">
       <c r="A59">
         <v>54</v>
       </c>
@@ -2622,11 +2713,12 @@
       <c r="C59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21">
+      <c r="D59" s="7"/>
+      <c r="E59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21">
       <c r="A60">
         <v>55</v>
       </c>
@@ -2636,11 +2728,12 @@
       <c r="C60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21">
+      <c r="D60" s="6"/>
+      <c r="E60" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21">
       <c r="A61">
         <v>56</v>
       </c>
@@ -2650,11 +2743,12 @@
       <c r="C61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21">
+      <c r="D61" s="6"/>
+      <c r="E61" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21">
       <c r="A62">
         <v>57</v>
       </c>
@@ -2664,11 +2758,12 @@
       <c r="C62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="21">
+      <c r="D62" s="6"/>
+      <c r="E62" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21">
       <c r="A63">
         <v>58</v>
       </c>
@@ -2678,11 +2773,12 @@
       <c r="C63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="21">
+      <c r="D63" s="6"/>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21">
       <c r="A64">
         <v>59</v>
       </c>
@@ -2692,11 +2788,12 @@
       <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="21">
+      <c r="D64" s="6"/>
+      <c r="E64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21">
       <c r="A65">
         <v>60</v>
       </c>
@@ -2706,11 +2803,12 @@
       <c r="C65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="21">
+      <c r="D65" s="6"/>
+      <c r="E65" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21">
       <c r="A66">
         <v>61</v>
       </c>
@@ -2720,11 +2818,12 @@
       <c r="C66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="21">
+      <c r="D66" s="6"/>
+      <c r="E66" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="21">
       <c r="A67">
         <v>62</v>
       </c>
@@ -2734,11 +2833,12 @@
       <c r="C67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="21">
+      <c r="D67" s="6"/>
+      <c r="E67" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21">
       <c r="A68">
         <v>63</v>
       </c>
@@ -2748,11 +2848,12 @@
       <c r="C68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="21">
+      <c r="D68" s="6"/>
+      <c r="E68" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21">
       <c r="A69">
         <v>64</v>
       </c>
@@ -2762,11 +2863,12 @@
       <c r="C69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="21">
+      <c r="D69" s="6"/>
+      <c r="E69" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21">
       <c r="A70">
         <v>65</v>
       </c>
@@ -2776,11 +2878,12 @@
       <c r="C70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="21">
+      <c r="D70" s="6"/>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21">
       <c r="A71">
         <v>66</v>
       </c>
@@ -2790,11 +2893,12 @@
       <c r="C71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="21">
+      <c r="D71" s="6"/>
+      <c r="E71" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21">
       <c r="A72">
         <v>67</v>
       </c>
@@ -2804,11 +2908,12 @@
       <c r="C72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="21">
+      <c r="D72" s="6"/>
+      <c r="E72" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="21">
       <c r="A73">
         <v>68</v>
       </c>
@@ -2818,11 +2923,12 @@
       <c r="C73" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="21">
+      <c r="D73" s="6"/>
+      <c r="E73" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21">
       <c r="A74">
         <v>69</v>
       </c>
@@ -2832,11 +2938,12 @@
       <c r="C74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="21">
+      <c r="D74" s="6"/>
+      <c r="E74" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21">
       <c r="A75">
         <v>70</v>
       </c>
@@ -2846,11 +2953,12 @@
       <c r="C75" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="21">
+      <c r="D75" s="6"/>
+      <c r="E75" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21">
       <c r="A76">
         <v>71</v>
       </c>
@@ -2860,11 +2968,12 @@
       <c r="C76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="21">
+      <c r="D76" s="6"/>
+      <c r="E76" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21">
       <c r="A77">
         <v>72</v>
       </c>
@@ -2874,11 +2983,12 @@
       <c r="C77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="21">
+      <c r="D77" s="6"/>
+      <c r="E77" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21">
       <c r="A78">
         <v>73</v>
       </c>
@@ -2888,11 +2998,12 @@
       <c r="C78" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="21">
+      <c r="D78" s="6"/>
+      <c r="E78" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21">
       <c r="A79">
         <v>74</v>
       </c>
@@ -2902,11 +3013,12 @@
       <c r="C79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="21">
+      <c r="D79" s="6"/>
+      <c r="E79" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21">
       <c r="A80">
         <v>75</v>
       </c>
@@ -2916,11 +3028,12 @@
       <c r="C80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="21">
+      <c r="D80" s="6"/>
+      <c r="E80" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21">
       <c r="A81">
         <v>76</v>
       </c>
@@ -2930,11 +3043,12 @@
       <c r="C81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="21">
+      <c r="D81" s="6"/>
+      <c r="E81" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21">
       <c r="A82">
         <v>77</v>
       </c>
@@ -2944,11 +3058,12 @@
       <c r="C82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="21">
+      <c r="D82" s="6"/>
+      <c r="E82" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21">
       <c r="A83">
         <v>78</v>
       </c>
@@ -2958,11 +3073,12 @@
       <c r="C83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="21">
+      <c r="D83" s="6"/>
+      <c r="E83" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21">
       <c r="A84">
         <v>79</v>
       </c>
@@ -2972,11 +3088,12 @@
       <c r="C84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="21">
+      <c r="D84" s="6"/>
+      <c r="E84" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21">
       <c r="A85">
         <v>80</v>
       </c>
@@ -2986,11 +3103,12 @@
       <c r="C85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="21">
+      <c r="D85" s="6"/>
+      <c r="E85" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21">
       <c r="A86">
         <v>81</v>
       </c>
@@ -3000,11 +3118,12 @@
       <c r="C86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="21">
+      <c r="D86" s="6"/>
+      <c r="E86" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21">
       <c r="A87">
         <v>82</v>
       </c>
@@ -3014,11 +3133,12 @@
       <c r="C87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="21">
+      <c r="D87" s="6"/>
+      <c r="E87" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="21">
       <c r="A88">
         <v>83</v>
       </c>
@@ -3028,11 +3148,12 @@
       <c r="C88" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="21">
+      <c r="D88" s="6"/>
+      <c r="E88" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="21">
       <c r="A89">
         <v>84</v>
       </c>
@@ -3042,11 +3163,12 @@
       <c r="C89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="21">
+      <c r="D89" s="6"/>
+      <c r="E89" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="21">
       <c r="A90">
         <v>85</v>
       </c>
@@ -3056,11 +3178,12 @@
       <c r="C90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="21">
+      <c r="D90" s="6"/>
+      <c r="E90" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="21">
       <c r="A91">
         <v>86</v>
       </c>
@@ -3070,11 +3193,12 @@
       <c r="C91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="21">
+      <c r="D91" s="6"/>
+      <c r="E91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="21">
       <c r="A92">
         <v>87</v>
       </c>
@@ -3084,11 +3208,12 @@
       <c r="C92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="21">
+      <c r="D92" s="6"/>
+      <c r="E92" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="21">
       <c r="A93">
         <v>88</v>
       </c>
@@ -3098,11 +3223,12 @@
       <c r="C93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="21">
+      <c r="D93" s="6"/>
+      <c r="E93" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="21">
       <c r="A94">
         <v>89</v>
       </c>
@@ -3112,11 +3238,12 @@
       <c r="C94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="21">
+      <c r="D94" s="6"/>
+      <c r="E94" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="21">
       <c r="A95">
         <v>90</v>
       </c>
@@ -3126,11 +3253,12 @@
       <c r="C95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="21">
+      <c r="D95" s="6"/>
+      <c r="E95" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="21">
       <c r="A96">
         <v>91</v>
       </c>
@@ -3140,11 +3268,12 @@
       <c r="C96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="21">
+      <c r="D96" s="6"/>
+      <c r="E96" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="21">
       <c r="A97">
         <v>92</v>
       </c>
@@ -3154,11 +3283,12 @@
       <c r="C97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="21">
+      <c r="D97" s="6"/>
+      <c r="E97" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="21">
       <c r="A98">
         <v>93</v>
       </c>
@@ -3168,24 +3298,26 @@
       <c r="C98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="6"/>
+      <c r="E98" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="21">
+    <row r="100" spans="1:5" ht="21">
       <c r="A100">
         <v>95</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" ht="21">
+      <c r="D100" s="7"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -3195,11 +3327,12 @@
       <c r="C101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="21">
+      <c r="D101" s="6"/>
+      <c r="E101" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -3209,11 +3342,12 @@
       <c r="C102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="21">
+      <c r="D102" s="6"/>
+      <c r="E102" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -3223,11 +3357,12 @@
       <c r="C103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="21">
+      <c r="D103" s="6"/>
+      <c r="E103" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -3237,11 +3372,12 @@
       <c r="C104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="21">
+      <c r="D104" s="6"/>
+      <c r="E104" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -3251,11 +3387,12 @@
       <c r="C105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="21">
+      <c r="D105" s="6"/>
+      <c r="E105" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="21">
       <c r="A106">
         <v>101</v>
       </c>
@@ -3265,11 +3402,12 @@
       <c r="C106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="21">
+      <c r="D106" s="6"/>
+      <c r="E106" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="21">
       <c r="A107">
         <v>102</v>
       </c>
@@ -3279,11 +3417,12 @@
       <c r="C107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="21">
+      <c r="D107" s="6"/>
+      <c r="E107" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="21">
       <c r="A108">
         <v>103</v>
       </c>
@@ -3293,11 +3432,12 @@
       <c r="C108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="21">
+      <c r="D108" s="6"/>
+      <c r="E108" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="21">
       <c r="A109">
         <v>104</v>
       </c>
@@ -3307,11 +3447,12 @@
       <c r="C109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="21">
+      <c r="D109" s="6"/>
+      <c r="E109" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="21">
       <c r="A110">
         <v>105</v>
       </c>
@@ -3321,11 +3462,12 @@
       <c r="C110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="21">
+      <c r="D110" s="6"/>
+      <c r="E110" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="21">
       <c r="A111">
         <v>106</v>
       </c>
@@ -3335,11 +3477,12 @@
       <c r="C111" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="21">
+      <c r="D111" s="6"/>
+      <c r="E111" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="21">
       <c r="A112">
         <v>107</v>
       </c>
@@ -3349,11 +3492,12 @@
       <c r="C112" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="21">
+      <c r="D112" s="6"/>
+      <c r="E112" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="21">
       <c r="A113">
         <v>108</v>
       </c>
@@ -3363,11 +3507,12 @@
       <c r="C113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="21">
+      <c r="D113" s="6"/>
+      <c r="E113" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="21">
       <c r="A114">
         <v>109</v>
       </c>
@@ -3377,11 +3522,12 @@
       <c r="C114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="21">
+      <c r="D114" s="6"/>
+      <c r="E114" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="21">
       <c r="A115">
         <v>110</v>
       </c>
@@ -3391,11 +3537,12 @@
       <c r="C115" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="21">
+      <c r="D115" s="6"/>
+      <c r="E115" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="21">
       <c r="A116">
         <v>111</v>
       </c>
@@ -3405,11 +3552,12 @@
       <c r="C116" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="21">
+      <c r="D116" s="6"/>
+      <c r="E116" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="21">
       <c r="A117">
         <v>112</v>
       </c>
@@ -3419,11 +3567,12 @@
       <c r="C117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="21">
+      <c r="D117" s="6"/>
+      <c r="E117" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="21">
       <c r="A118">
         <v>113</v>
       </c>
@@ -3433,11 +3582,12 @@
       <c r="C118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="21">
+      <c r="D118" s="6"/>
+      <c r="E118" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="21">
       <c r="A119">
         <v>114</v>
       </c>
@@ -3447,11 +3597,12 @@
       <c r="C119" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="21">
+      <c r="D119" s="6"/>
+      <c r="E119" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="21">
       <c r="A120">
         <v>115</v>
       </c>
@@ -3461,11 +3612,12 @@
       <c r="C120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="21">
+      <c r="D120" s="6"/>
+      <c r="E120" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="21">
       <c r="A121">
         <v>116</v>
       </c>
@@ -3475,11 +3627,12 @@
       <c r="C121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="21">
+      <c r="D121" s="6"/>
+      <c r="E121" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="21">
       <c r="A122">
         <v>117</v>
       </c>
@@ -3489,11 +3642,12 @@
       <c r="C122" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="21">
+      <c r="D122" s="6"/>
+      <c r="E122" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="21">
       <c r="A123">
         <v>118</v>
       </c>
@@ -3503,11 +3657,12 @@
       <c r="C123" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="21">
+      <c r="D123" s="6"/>
+      <c r="E123" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="21">
       <c r="A124">
         <v>119</v>
       </c>
@@ -3517,11 +3672,12 @@
       <c r="C124" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="21">
+      <c r="D124" s="6"/>
+      <c r="E124" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="21">
       <c r="A125">
         <v>120</v>
       </c>
@@ -3531,11 +3687,12 @@
       <c r="C125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="21">
+      <c r="D125" s="6"/>
+      <c r="E125" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="21">
       <c r="A126">
         <v>121</v>
       </c>
@@ -3545,11 +3702,12 @@
       <c r="C126" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="21">
+      <c r="D126" s="6"/>
+      <c r="E126" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="21">
       <c r="A127">
         <v>122</v>
       </c>
@@ -3559,11 +3717,12 @@
       <c r="C127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="21">
+      <c r="D127" s="6"/>
+      <c r="E127" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="21">
       <c r="A128">
         <v>123</v>
       </c>
@@ -3573,11 +3732,12 @@
       <c r="C128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="21">
+      <c r="D128" s="6"/>
+      <c r="E128" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="21">
       <c r="A129">
         <v>124</v>
       </c>
@@ -3587,11 +3747,12 @@
       <c r="C129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21">
+      <c r="D129" s="6"/>
+      <c r="E129" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="21">
       <c r="A130">
         <v>125</v>
       </c>
@@ -3601,11 +3762,12 @@
       <c r="C130" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="21">
+      <c r="D130" s="6"/>
+      <c r="E130" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="21">
       <c r="A131">
         <v>126</v>
       </c>
@@ -3615,11 +3777,12 @@
       <c r="C131" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="21">
+      <c r="D131" s="6"/>
+      <c r="E131" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="21">
       <c r="A132">
         <v>127</v>
       </c>
@@ -3629,11 +3792,12 @@
       <c r="C132" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="21">
+      <c r="D132" s="6"/>
+      <c r="E132" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="21">
       <c r="A133">
         <v>128</v>
       </c>
@@ -3643,11 +3807,12 @@
       <c r="C133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="21">
+      <c r="D133" s="6"/>
+      <c r="E133" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="21">
       <c r="A134">
         <v>129</v>
       </c>
@@ -3657,11 +3822,12 @@
       <c r="C134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="21">
+      <c r="D134" s="6"/>
+      <c r="E134" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21">
       <c r="A135">
         <v>130</v>
       </c>
@@ -3671,11 +3837,12 @@
       <c r="C135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="21">
+      <c r="D135" s="6"/>
+      <c r="E135" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="21">
       <c r="A136">
         <v>131</v>
       </c>
@@ -3685,23 +3852,25 @@
       <c r="C136" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="D136" s="6"/>
+      <c r="E136" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="21">
+    <row r="138" spans="1:5" ht="21">
       <c r="A138">
         <v>133</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" ht="21">
+      <c r="D138" s="7"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" ht="21">
       <c r="A139">
         <v>134</v>
       </c>
@@ -3711,11 +3880,12 @@
       <c r="C139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
+      <c r="D139" s="6"/>
+      <c r="E139" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21">
       <c r="A140">
         <v>135</v>
       </c>
@@ -3725,11 +3895,12 @@
       <c r="C140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
+      <c r="D140" s="6"/>
+      <c r="E140" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21">
       <c r="A141">
         <v>136</v>
       </c>
@@ -3739,11 +3910,12 @@
       <c r="C141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
+      <c r="D141" s="6"/>
+      <c r="E141" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21">
       <c r="A142">
         <v>137</v>
       </c>
@@ -3753,11 +3925,12 @@
       <c r="C142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
+      <c r="D142" s="6"/>
+      <c r="E142" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21">
       <c r="A143">
         <v>138</v>
       </c>
@@ -3767,11 +3940,12 @@
       <c r="C143" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21">
+      <c r="D143" s="6"/>
+      <c r="E143" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="21">
       <c r="A144">
         <v>139</v>
       </c>
@@ -3781,11 +3955,12 @@
       <c r="C144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21">
+      <c r="D144" s="6"/>
+      <c r="E144" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21">
       <c r="A145">
         <v>140</v>
       </c>
@@ -3795,11 +3970,12 @@
       <c r="C145" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21">
+      <c r="D145" s="6"/>
+      <c r="E145" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21">
       <c r="A146">
         <v>141</v>
       </c>
@@ -3809,11 +3985,12 @@
       <c r="C146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="21">
+      <c r="D146" s="6"/>
+      <c r="E146" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21">
       <c r="A147">
         <v>142</v>
       </c>
@@ -3823,11 +4000,12 @@
       <c r="C147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21">
+      <c r="D147" s="6"/>
+      <c r="E147" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21">
       <c r="A148">
         <v>143</v>
       </c>
@@ -3837,11 +4015,12 @@
       <c r="C148" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21">
+      <c r="D148" s="6"/>
+      <c r="E148" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="21">
       <c r="A149">
         <v>144</v>
       </c>
@@ -3851,11 +4030,12 @@
       <c r="C149" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="21">
+      <c r="D149" s="6"/>
+      <c r="E149" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="21">
       <c r="A150">
         <v>145</v>
       </c>
@@ -3865,11 +4045,12 @@
       <c r="C150" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="21">
+      <c r="D150" s="6"/>
+      <c r="E150" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="21">
       <c r="A151">
         <v>146</v>
       </c>
@@ -3879,11 +4060,12 @@
       <c r="C151" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="21">
+      <c r="D151" s="6"/>
+      <c r="E151" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="21">
       <c r="A152">
         <v>147</v>
       </c>
@@ -3893,11 +4075,12 @@
       <c r="C152" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="21">
+      <c r="D152" s="6"/>
+      <c r="E152" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="21">
       <c r="A153">
         <v>148</v>
       </c>
@@ -3907,11 +4090,12 @@
       <c r="C153" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="21">
+      <c r="D153" s="6"/>
+      <c r="E153" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="21">
       <c r="A154">
         <v>149</v>
       </c>
@@ -3921,11 +4105,12 @@
       <c r="C154" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="21">
+      <c r="D154" s="6"/>
+      <c r="E154" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="21">
       <c r="A155">
         <v>150</v>
       </c>
@@ -3935,11 +4120,12 @@
       <c r="C155" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="21">
+      <c r="D155" s="6"/>
+      <c r="E155" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="21">
       <c r="A156">
         <v>151</v>
       </c>
@@ -3949,11 +4135,12 @@
       <c r="C156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21">
+      <c r="D156" s="6"/>
+      <c r="E156" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="21">
       <c r="A157">
         <v>152</v>
       </c>
@@ -3963,11 +4150,12 @@
       <c r="C157" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="21">
+      <c r="D157" s="6"/>
+      <c r="E157" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="21">
       <c r="A158">
         <v>153</v>
       </c>
@@ -3977,11 +4165,12 @@
       <c r="C158" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="21">
+      <c r="D158" s="6"/>
+      <c r="E158" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="21">
       <c r="A159">
         <v>154</v>
       </c>
@@ -3991,11 +4180,12 @@
       <c r="C159" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="21">
+      <c r="D159" s="6"/>
+      <c r="E159" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="21">
       <c r="A160">
         <v>155</v>
       </c>
@@ -4005,11 +4195,12 @@
       <c r="C160" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="21">
+      <c r="D160" s="6"/>
+      <c r="E160" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="21">
       <c r="A161">
         <v>156</v>
       </c>
@@ -4019,11 +4210,12 @@
       <c r="C161" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="21">
+      <c r="D161" s="6"/>
+      <c r="E161" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="21">
       <c r="A162">
         <v>157</v>
       </c>
@@ -4033,11 +4225,12 @@
       <c r="C162" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
+      <c r="D162" s="6"/>
+      <c r="E162" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="21">
       <c r="A163">
         <v>158</v>
       </c>
@@ -4047,11 +4240,12 @@
       <c r="C163" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="21">
+      <c r="D163" s="6"/>
+      <c r="E163" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="21">
       <c r="A164">
         <v>159</v>
       </c>
@@ -4061,11 +4255,12 @@
       <c r="C164" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="21">
+      <c r="D164" s="7"/>
+      <c r="E164" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="21">
       <c r="A165">
         <v>160</v>
       </c>
@@ -4075,11 +4270,12 @@
       <c r="C165" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="21">
+      <c r="D165" s="7"/>
+      <c r="E165" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="21">
       <c r="A166">
         <v>161</v>
       </c>
@@ -4089,11 +4285,12 @@
       <c r="C166" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="21">
+      <c r="D166" s="6"/>
+      <c r="E166" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="21">
       <c r="A167">
         <v>162</v>
       </c>
@@ -4103,11 +4300,12 @@
       <c r="C167" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
+      <c r="D167" s="6"/>
+      <c r="E167" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="21">
       <c r="A168">
         <v>163</v>
       </c>
@@ -4117,11 +4315,12 @@
       <c r="C168" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="21">
+      <c r="D168" s="6"/>
+      <c r="E168" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="21">
       <c r="A169">
         <v>164</v>
       </c>
@@ -4131,11 +4330,12 @@
       <c r="C169" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="21">
+      <c r="D169" s="6"/>
+      <c r="E169" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="21">
       <c r="A170">
         <v>165</v>
       </c>
@@ -4145,11 +4345,12 @@
       <c r="C170" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="21">
+      <c r="D170" s="6"/>
+      <c r="E170" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="21">
       <c r="A171">
         <v>166</v>
       </c>
@@ -4159,11 +4360,12 @@
       <c r="C171" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="21">
+      <c r="D171" s="6"/>
+      <c r="E171" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21">
       <c r="A172">
         <v>167</v>
       </c>
@@ -4173,11 +4375,12 @@
       <c r="C172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="21">
+      <c r="D172" s="6"/>
+      <c r="E172" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21">
       <c r="A173">
         <v>168</v>
       </c>
@@ -4187,11 +4390,12 @@
       <c r="C173" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="21">
+      <c r="D173" s="6"/>
+      <c r="E173" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="21">
       <c r="A174">
         <v>169</v>
       </c>
@@ -4201,23 +4405,25 @@
       <c r="C174" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="D174" s="6"/>
+      <c r="E174" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21">
+    <row r="176" spans="1:5" ht="21">
       <c r="A176">
         <v>171</v>
       </c>
       <c r="C176" s="7"/>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="1:4" ht="21">
+      <c r="D176" s="7"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" ht="21">
       <c r="A177">
         <v>172</v>
       </c>
@@ -4227,11 +4433,12 @@
       <c r="C177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="21">
+      <c r="D177" s="6"/>
+      <c r="E177" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="21">
       <c r="A178">
         <v>173</v>
       </c>
@@ -4241,11 +4448,12 @@
       <c r="C178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="21">
+      <c r="D178" s="6"/>
+      <c r="E178" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="21">
       <c r="A179">
         <v>174</v>
       </c>
@@ -4255,11 +4463,12 @@
       <c r="C179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="21">
+      <c r="D179" s="6"/>
+      <c r="E179" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="21">
       <c r="A180">
         <v>175</v>
       </c>
@@ -4269,11 +4478,12 @@
       <c r="C180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="21">
+      <c r="D180" s="6"/>
+      <c r="E180" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="21">
       <c r="A181">
         <v>176</v>
       </c>
@@ -4283,11 +4493,12 @@
       <c r="C181" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="21">
+      <c r="D181" s="6"/>
+      <c r="E181" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="21">
       <c r="A182">
         <v>177</v>
       </c>
@@ -4297,11 +4508,12 @@
       <c r="C182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="21">
+      <c r="D182" s="6"/>
+      <c r="E182" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="21">
       <c r="A183">
         <v>178</v>
       </c>
@@ -4311,11 +4523,12 @@
       <c r="C183" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="21">
+      <c r="D183" s="6"/>
+      <c r="E183" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="21">
       <c r="A184">
         <v>179</v>
       </c>
@@ -4325,11 +4538,12 @@
       <c r="C184" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="21">
+      <c r="D184" s="6"/>
+      <c r="E184" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="21">
       <c r="A185">
         <v>180</v>
       </c>
@@ -4339,11 +4553,12 @@
       <c r="C185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="21">
+      <c r="D185" s="6"/>
+      <c r="E185" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="21">
       <c r="A186">
         <v>181</v>
       </c>
@@ -4353,11 +4568,12 @@
       <c r="C186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="21">
+      <c r="D186" s="6"/>
+      <c r="E186" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21">
       <c r="A187">
         <v>182</v>
       </c>
@@ -4367,11 +4583,12 @@
       <c r="C187" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="21">
+      <c r="D187" s="6"/>
+      <c r="E187" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="21">
       <c r="A188">
         <v>183</v>
       </c>
@@ -4381,11 +4598,12 @@
       <c r="C188" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="21">
+      <c r="D188" s="6"/>
+      <c r="E188" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="21">
       <c r="A189">
         <v>184</v>
       </c>
@@ -4395,11 +4613,12 @@
       <c r="C189" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="21">
+      <c r="D189" s="6"/>
+      <c r="E189" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="21">
       <c r="A190">
         <v>185</v>
       </c>
@@ -4409,11 +4628,12 @@
       <c r="C190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="21">
+      <c r="D190" s="6"/>
+      <c r="E190" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="21">
       <c r="A191">
         <v>186</v>
       </c>
@@ -4423,11 +4643,12 @@
       <c r="C191" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="21">
+      <c r="D191" s="6"/>
+      <c r="E191" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="21">
       <c r="A192">
         <v>187</v>
       </c>
@@ -4437,11 +4658,12 @@
       <c r="C192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="21">
+      <c r="D192" s="6"/>
+      <c r="E192" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="21">
       <c r="A193">
         <v>188</v>
       </c>
@@ -4451,11 +4673,12 @@
       <c r="C193" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="21">
+      <c r="D193" s="6"/>
+      <c r="E193" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21">
       <c r="A194">
         <v>189</v>
       </c>
@@ -4465,11 +4688,12 @@
       <c r="C194" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="21">
+      <c r="D194" s="6"/>
+      <c r="E194" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="21">
       <c r="A195">
         <v>190</v>
       </c>
@@ -4479,11 +4703,12 @@
       <c r="C195" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="21">
+      <c r="D195" s="6"/>
+      <c r="E195" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="21">
       <c r="A196">
         <v>191</v>
       </c>
@@ -4493,11 +4718,12 @@
       <c r="C196" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="21">
+      <c r="D196" s="6"/>
+      <c r="E196" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="21">
       <c r="A197">
         <v>192</v>
       </c>
@@ -4507,11 +4733,12 @@
       <c r="C197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="21">
+      <c r="D197" s="6"/>
+      <c r="E197" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="21">
       <c r="A198">
         <v>193</v>
       </c>
@@ -4521,11 +4748,12 @@
       <c r="C198" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="21">
+      <c r="D198" s="6"/>
+      <c r="E198" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="21">
       <c r="A199">
         <v>194</v>
       </c>
@@ -4535,11 +4763,12 @@
       <c r="C199" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="21">
+      <c r="D199" s="6"/>
+      <c r="E199" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="21">
       <c r="A200">
         <v>195</v>
       </c>
@@ -4549,11 +4778,12 @@
       <c r="C200" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="21">
+      <c r="D200" s="6"/>
+      <c r="E200" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="21">
       <c r="A201">
         <v>196</v>
       </c>
@@ -4563,11 +4793,12 @@
       <c r="C201" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
+      <c r="D201" s="6"/>
+      <c r="E201" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="21">
       <c r="A202">
         <v>197</v>
       </c>
@@ -4577,11 +4808,12 @@
       <c r="C202" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="21">
+      <c r="D202" s="6"/>
+      <c r="E202" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="21">
       <c r="A203">
         <v>198</v>
       </c>
@@ -4591,11 +4823,12 @@
       <c r="C203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="21">
+      <c r="D203" s="6"/>
+      <c r="E203" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="21">
       <c r="A204">
         <v>199</v>
       </c>
@@ -4605,11 +4838,12 @@
       <c r="C204" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="21">
+      <c r="D204" s="6"/>
+      <c r="E204" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="21">
       <c r="A205">
         <v>200</v>
       </c>
@@ -4619,11 +4853,12 @@
       <c r="C205" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="21">
+      <c r="D205" s="6"/>
+      <c r="E205" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="21">
       <c r="A206">
         <v>201</v>
       </c>
@@ -4633,11 +4868,12 @@
       <c r="C206" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="21">
+      <c r="D206" s="6"/>
+      <c r="E206" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="21">
       <c r="A207">
         <v>202</v>
       </c>
@@ -4647,11 +4883,12 @@
       <c r="C207" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="21">
+      <c r="D207" s="6"/>
+      <c r="E207" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="21">
       <c r="A208">
         <v>203</v>
       </c>
@@ -4661,11 +4898,12 @@
       <c r="C208" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="21">
+      <c r="D208" s="6"/>
+      <c r="E208" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="21">
       <c r="A209">
         <v>204</v>
       </c>
@@ -4675,11 +4913,12 @@
       <c r="C209" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="21">
+      <c r="D209" s="6"/>
+      <c r="E209" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="21">
       <c r="A210">
         <v>205</v>
       </c>
@@ -4689,11 +4928,12 @@
       <c r="C210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="21">
+      <c r="D210" s="6"/>
+      <c r="E210" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="21">
       <c r="A211">
         <v>206</v>
       </c>
@@ -4703,27 +4943,30 @@
       <c r="C211" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="21">
+      <c r="D211" s="6"/>
+      <c r="E211" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="21">
       <c r="A212">
         <v>207</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" ht="21">
+      <c r="D212" s="7"/>
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" spans="1:5" ht="21">
       <c r="A213">
         <v>208</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="1:4" ht="21">
+      <c r="D213" s="7"/>
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="1:5" ht="21">
       <c r="A214">
         <v>209</v>
       </c>
@@ -4733,11 +4976,12 @@
       <c r="C214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="21">
+      <c r="D214" s="6"/>
+      <c r="E214" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="21">
       <c r="A215">
         <v>210</v>
       </c>
@@ -4747,11 +4991,12 @@
       <c r="C215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="21">
+      <c r="D215" s="6"/>
+      <c r="E215" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="21">
       <c r="A216">
         <v>211</v>
       </c>
@@ -4761,11 +5006,12 @@
       <c r="C216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="21">
+      <c r="D216" s="6"/>
+      <c r="E216" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="21">
       <c r="A217">
         <v>212</v>
       </c>
@@ -4775,11 +5021,12 @@
       <c r="C217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
+      <c r="D217" s="6"/>
+      <c r="E217" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="21">
       <c r="A218">
         <v>213</v>
       </c>
@@ -4789,11 +5036,12 @@
       <c r="C218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="21">
+      <c r="D218" s="6"/>
+      <c r="E218" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="21">
       <c r="A219">
         <v>214</v>
       </c>
@@ -4803,11 +5051,12 @@
       <c r="C219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="21">
+      <c r="D219" s="6"/>
+      <c r="E219" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="21">
       <c r="A220">
         <v>215</v>
       </c>
@@ -4817,11 +5066,12 @@
       <c r="C220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="21">
+      <c r="D220" s="9"/>
+      <c r="E220" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="21">
       <c r="A221">
         <v>216</v>
       </c>
@@ -4831,11 +5081,12 @@
       <c r="C221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="21">
+      <c r="D221" s="6"/>
+      <c r="E221" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="21">
       <c r="A222">
         <v>217</v>
       </c>
@@ -4845,11 +5096,12 @@
       <c r="C222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="21">
+      <c r="D222" s="6"/>
+      <c r="E222" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="21">
       <c r="A223">
         <v>218</v>
       </c>
@@ -4859,11 +5111,12 @@
       <c r="C223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="21">
+      <c r="D223" s="6"/>
+      <c r="E223" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="21">
       <c r="A224">
         <v>219</v>
       </c>
@@ -4873,11 +5126,12 @@
       <c r="C224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="21">
+      <c r="D224" s="6"/>
+      <c r="E224" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="21">
       <c r="A225">
         <v>220</v>
       </c>
@@ -4887,11 +5141,12 @@
       <c r="C225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="21">
+      <c r="D225" s="6"/>
+      <c r="E225" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="21">
       <c r="A226">
         <v>221</v>
       </c>
@@ -4901,11 +5156,12 @@
       <c r="C226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="21">
+      <c r="D226" s="6"/>
+      <c r="E226" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="21">
       <c r="A227">
         <v>222</v>
       </c>
@@ -4915,11 +5171,12 @@
       <c r="C227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="21">
+      <c r="D227" s="6"/>
+      <c r="E227" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="21">
       <c r="A228">
         <v>223</v>
       </c>
@@ -4929,11 +5186,12 @@
       <c r="C228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="21">
+      <c r="D228" s="6"/>
+      <c r="E228" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="21">
       <c r="A229">
         <v>224</v>
       </c>
@@ -4943,11 +5201,12 @@
       <c r="C229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="21">
+      <c r="D229" s="6"/>
+      <c r="E229" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="21">
       <c r="A230">
         <v>225</v>
       </c>
@@ -4957,11 +5216,12 @@
       <c r="C230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="21">
+      <c r="D230" s="6"/>
+      <c r="E230" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="21">
       <c r="A231">
         <v>226</v>
       </c>
@@ -4971,11 +5231,12 @@
       <c r="C231" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="21">
+      <c r="D231" s="6"/>
+      <c r="E231" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="21">
       <c r="A232">
         <v>227</v>
       </c>
@@ -4985,11 +5246,12 @@
       <c r="C232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="21">
+      <c r="D232" s="6"/>
+      <c r="E232" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="21">
       <c r="A233">
         <v>228</v>
       </c>
@@ -4999,11 +5261,12 @@
       <c r="C233" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="21">
+      <c r="D233" s="6"/>
+      <c r="E233" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="21">
       <c r="A234">
         <v>229</v>
       </c>
@@ -5013,11 +5276,12 @@
       <c r="C234" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="21">
+      <c r="D234" s="6"/>
+      <c r="E234" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="21">
       <c r="A235">
         <v>230</v>
       </c>
@@ -5027,25 +5291,28 @@
       <c r="C235" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="21">
+      <c r="D235" s="6"/>
+      <c r="E235" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="21">
       <c r="A236">
         <v>231</v>
       </c>
       <c r="C236" s="7"/>
-      <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="1:4" ht="21">
+      <c r="D236" s="7"/>
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:5" ht="21">
       <c r="A237">
         <v>232</v>
       </c>
       <c r="C237" s="7"/>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="1:4" ht="21">
+      <c r="D237" s="7"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" ht="21">
       <c r="A238">
         <v>233</v>
       </c>
@@ -5055,11 +5322,12 @@
       <c r="C238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="21">
+      <c r="D238" s="6"/>
+      <c r="E238" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="21">
       <c r="A239">
         <v>234</v>
       </c>
@@ -5069,11 +5337,12 @@
       <c r="C239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="21">
+      <c r="D239" s="6"/>
+      <c r="E239" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="21">
       <c r="A240">
         <v>235</v>
       </c>
@@ -5083,11 +5352,12 @@
       <c r="C240" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="21">
+      <c r="D240" s="6"/>
+      <c r="E240" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="21">
       <c r="A241">
         <v>236</v>
       </c>
@@ -5097,11 +5367,12 @@
       <c r="C241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="21">
+      <c r="D241" s="6"/>
+      <c r="E241" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="21">
       <c r="A242">
         <v>237</v>
       </c>
@@ -5111,11 +5382,12 @@
       <c r="C242" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="21">
+      <c r="D242" s="6"/>
+      <c r="E242" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="21">
       <c r="A243">
         <v>238</v>
       </c>
@@ -5125,11 +5397,12 @@
       <c r="C243" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="21">
+      <c r="D243" s="6"/>
+      <c r="E243" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="21">
       <c r="A244">
         <v>239</v>
       </c>
@@ -5139,11 +5412,12 @@
       <c r="C244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="21">
+      <c r="D244" s="6"/>
+      <c r="E244" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="21">
       <c r="A245">
         <v>240</v>
       </c>
@@ -5153,11 +5427,12 @@
       <c r="C245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="21">
+      <c r="D245" s="6"/>
+      <c r="E245" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="21">
       <c r="A246">
         <v>241</v>
       </c>
@@ -5167,11 +5442,12 @@
       <c r="C246" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="21">
+      <c r="D246" s="6"/>
+      <c r="E246" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="21">
       <c r="A247">
         <v>242</v>
       </c>
@@ -5181,11 +5457,12 @@
       <c r="C247" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="21">
+      <c r="D247" s="6"/>
+      <c r="E247" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="21">
       <c r="A248">
         <v>243</v>
       </c>
@@ -5195,11 +5472,12 @@
       <c r="C248" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="21">
+      <c r="D248" s="6"/>
+      <c r="E248" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="21">
       <c r="A249">
         <v>244</v>
       </c>
@@ -5209,11 +5487,12 @@
       <c r="C249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="21">
+      <c r="D249" s="6"/>
+      <c r="E249" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="21">
       <c r="A250">
         <v>245</v>
       </c>
@@ -5223,11 +5502,12 @@
       <c r="C250" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="21">
+      <c r="D250" s="6"/>
+      <c r="E250" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="21">
       <c r="A251">
         <v>246</v>
       </c>
@@ -5237,11 +5517,12 @@
       <c r="C251" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="21">
+      <c r="D251" s="6"/>
+      <c r="E251" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="21">
       <c r="A252">
         <v>247</v>
       </c>
@@ -5251,11 +5532,12 @@
       <c r="C252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D252" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="21">
+      <c r="D252" s="6"/>
+      <c r="E252" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="21">
       <c r="A253">
         <v>248</v>
       </c>
@@ -5265,11 +5547,12 @@
       <c r="C253" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="21">
+      <c r="D253" s="6"/>
+      <c r="E253" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="21">
       <c r="A254">
         <v>249</v>
       </c>
@@ -5279,11 +5562,12 @@
       <c r="C254" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="21">
+      <c r="D254" s="6"/>
+      <c r="E254" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="21">
       <c r="A255">
         <v>250</v>
       </c>
@@ -5293,11 +5577,12 @@
       <c r="C255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="21">
+      <c r="D255" s="6"/>
+      <c r="E255" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="21">
       <c r="A256">
         <v>251</v>
       </c>
@@ -5307,11 +5592,12 @@
       <c r="C256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="21">
+      <c r="D256" s="6"/>
+      <c r="E256" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="21">
       <c r="A257">
         <v>252</v>
       </c>
@@ -5321,11 +5607,12 @@
       <c r="C257" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="21">
+      <c r="D257" s="6"/>
+      <c r="E257" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="21">
       <c r="A258">
         <v>253</v>
       </c>
@@ -5335,11 +5622,12 @@
       <c r="C258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="21">
+      <c r="D258" s="6"/>
+      <c r="E258" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="21">
       <c r="A259">
         <v>254</v>
       </c>
@@ -5349,11 +5637,12 @@
       <c r="C259" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="21">
+      <c r="D259" s="6"/>
+      <c r="E259" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="21">
       <c r="A260">
         <v>255</v>
       </c>
@@ -5363,11 +5652,12 @@
       <c r="C260" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D260" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="21">
+      <c r="D260" s="6"/>
+      <c r="E260" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="21">
       <c r="A261">
         <v>256</v>
       </c>
@@ -5377,11 +5667,12 @@
       <c r="C261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D261" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="21">
+      <c r="D261" s="6"/>
+      <c r="E261" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="21">
       <c r="A262">
         <v>257</v>
       </c>
@@ -5391,11 +5682,12 @@
       <c r="C262" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="21">
+      <c r="D262" s="6"/>
+      <c r="E262" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="21">
       <c r="A263">
         <v>258</v>
       </c>
@@ -5405,11 +5697,12 @@
       <c r="C263" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="21">
+      <c r="D263" s="6"/>
+      <c r="E263" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="21">
       <c r="A264">
         <v>259</v>
       </c>
@@ -5419,11 +5712,12 @@
       <c r="C264" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="21">
+      <c r="D264" s="6"/>
+      <c r="E264" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="21">
       <c r="A265">
         <v>260</v>
       </c>
@@ -5433,11 +5727,12 @@
       <c r="C265" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="21">
+      <c r="D265" s="6"/>
+      <c r="E265" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="21">
       <c r="A266">
         <v>261</v>
       </c>
@@ -5447,11 +5742,12 @@
       <c r="C266" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="21">
+      <c r="D266" s="6"/>
+      <c r="E266" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="21">
       <c r="A267">
         <v>262</v>
       </c>
@@ -5461,11 +5757,12 @@
       <c r="C267" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="21">
+      <c r="D267" s="6"/>
+      <c r="E267" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="21">
       <c r="A268">
         <v>263</v>
       </c>
@@ -5475,11 +5772,12 @@
       <c r="C268" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="21">
+      <c r="D268" s="6"/>
+      <c r="E268" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="21">
       <c r="A269">
         <v>264</v>
       </c>
@@ -5489,11 +5787,12 @@
       <c r="C269" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="21">
+      <c r="D269" s="6"/>
+      <c r="E269" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="21">
       <c r="A270">
         <v>265</v>
       </c>
@@ -5503,11 +5802,12 @@
       <c r="C270" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="21">
+      <c r="D270" s="6"/>
+      <c r="E270" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="21">
       <c r="A271">
         <v>266</v>
       </c>
@@ -5517,11 +5817,12 @@
       <c r="C271" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="21">
+      <c r="D271" s="6"/>
+      <c r="E271" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="21">
       <c r="A272">
         <v>267</v>
       </c>
@@ -5531,25 +5832,28 @@
       <c r="C272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="21">
+      <c r="D272" s="6"/>
+      <c r="E272" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="21">
       <c r="A273">
         <v>268</v>
       </c>
       <c r="C273" s="7"/>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="1:4" ht="21">
+      <c r="D273" s="7"/>
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" spans="1:5" ht="21">
       <c r="A274">
         <v>269</v>
       </c>
       <c r="C274" s="7"/>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="1:4" ht="21">
+      <c r="D274" s="7"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="1:5" ht="21">
       <c r="A275">
         <v>270</v>
       </c>
@@ -5559,11 +5863,12 @@
       <c r="C275" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="21">
+      <c r="D275" s="6"/>
+      <c r="E275" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="21">
       <c r="A276">
         <v>271</v>
       </c>
@@ -5573,11 +5878,12 @@
       <c r="C276" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="21">
+      <c r="D276" s="6"/>
+      <c r="E276" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="21">
       <c r="A277">
         <v>272</v>
       </c>
@@ -5587,11 +5893,12 @@
       <c r="C277" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="21">
+      <c r="D277" s="6"/>
+      <c r="E277" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="21">
       <c r="A278">
         <v>273</v>
       </c>
@@ -5601,11 +5908,12 @@
       <c r="C278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="21">
+      <c r="D278" s="6"/>
+      <c r="E278" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="21">
       <c r="A279">
         <v>274</v>
       </c>
@@ -5615,11 +5923,12 @@
       <c r="C279" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="21">
+      <c r="D279" s="6"/>
+      <c r="E279" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="21">
       <c r="A280">
         <v>275</v>
       </c>
@@ -5629,11 +5938,12 @@
       <c r="C280" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="21">
+      <c r="D280" s="6"/>
+      <c r="E280" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="21">
       <c r="A281">
         <v>276</v>
       </c>
@@ -5643,11 +5953,12 @@
       <c r="C281" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="21">
+      <c r="D281" s="6"/>
+      <c r="E281" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="21">
       <c r="A282">
         <v>277</v>
       </c>
@@ -5657,11 +5968,12 @@
       <c r="C282" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="21">
+      <c r="D282" s="6"/>
+      <c r="E282" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="21">
       <c r="A283">
         <v>278</v>
       </c>
@@ -5671,11 +5983,12 @@
       <c r="C283" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="21">
+      <c r="D283" s="6"/>
+      <c r="E283" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="21">
       <c r="A284">
         <v>279</v>
       </c>
@@ -5685,11 +5998,12 @@
       <c r="C284" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D284" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="21">
+      <c r="D284" s="6"/>
+      <c r="E284" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="21">
       <c r="A285">
         <v>280</v>
       </c>
@@ -5699,11 +6013,12 @@
       <c r="C285" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D285" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="21">
+      <c r="D285" s="6"/>
+      <c r="E285" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="21">
       <c r="A286">
         <v>281</v>
       </c>
@@ -5713,11 +6028,12 @@
       <c r="C286" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D286" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="21">
+      <c r="D286" s="6"/>
+      <c r="E286" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="21">
       <c r="A287">
         <v>282</v>
       </c>
@@ -5727,11 +6043,12 @@
       <c r="C287" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="21">
+      <c r="D287" s="6"/>
+      <c r="E287" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="21">
       <c r="A288">
         <v>283</v>
       </c>
@@ -5741,11 +6058,12 @@
       <c r="C288" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D288" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="21">
+      <c r="D288" s="6"/>
+      <c r="E288" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="21">
       <c r="A289">
         <v>284</v>
       </c>
@@ -5755,11 +6073,12 @@
       <c r="C289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="21">
+      <c r="D289" s="6"/>
+      <c r="E289" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="21">
       <c r="A290">
         <v>285</v>
       </c>
@@ -5769,11 +6088,12 @@
       <c r="C290" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D290" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="21">
+      <c r="D290" s="6"/>
+      <c r="E290" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="21">
       <c r="A291">
         <v>286</v>
       </c>
@@ -5783,11 +6103,12 @@
       <c r="C291" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D291" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="21">
+      <c r="D291" s="6"/>
+      <c r="E291" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="21">
       <c r="A292">
         <v>287</v>
       </c>
@@ -5797,11 +6118,12 @@
       <c r="C292" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D292" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="21">
+      <c r="D292" s="6"/>
+      <c r="E292" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="21">
       <c r="A293">
         <v>288</v>
       </c>
@@ -5811,25 +6133,28 @@
       <c r="C293" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="21">
+      <c r="D293" s="6"/>
+      <c r="E293" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="21">
       <c r="A294">
         <v>289</v>
       </c>
       <c r="C294" s="7"/>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="1:4" ht="21">
+      <c r="D294" s="7"/>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:5" ht="21">
       <c r="A295">
         <v>290</v>
       </c>
       <c r="C295" s="7"/>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="1:4" ht="21">
+      <c r="D295" s="7"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="1:5" ht="21">
       <c r="A296">
         <v>291</v>
       </c>
@@ -5839,11 +6164,12 @@
       <c r="C296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D296" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="21">
+      <c r="D296" s="6"/>
+      <c r="E296" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="21">
       <c r="A297">
         <v>292</v>
       </c>
@@ -5853,11 +6179,12 @@
       <c r="C297" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D297" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="21">
+      <c r="D297" s="6"/>
+      <c r="E297" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="21">
       <c r="A298">
         <v>293</v>
       </c>
@@ -5867,11 +6194,12 @@
       <c r="C298" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D298" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="21">
+      <c r="D298" s="6"/>
+      <c r="E298" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="21">
       <c r="A299">
         <v>294</v>
       </c>
@@ -5881,11 +6209,12 @@
       <c r="C299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D299" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="21">
+      <c r="D299" s="6"/>
+      <c r="E299" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="21">
       <c r="A300">
         <v>295</v>
       </c>
@@ -5895,11 +6224,12 @@
       <c r="C300" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="21">
+      <c r="D300" s="6"/>
+      <c r="E300" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="21">
       <c r="A301">
         <v>296</v>
       </c>
@@ -5909,11 +6239,12 @@
       <c r="C301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D301" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="21">
+      <c r="D301" s="6"/>
+      <c r="E301" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="21">
       <c r="A302">
         <v>297</v>
       </c>
@@ -5923,11 +6254,12 @@
       <c r="C302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D302" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="21">
+      <c r="D302" s="6"/>
+      <c r="E302" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="21">
       <c r="A303">
         <v>298</v>
       </c>
@@ -5937,11 +6269,12 @@
       <c r="C303" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D303" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="21">
+      <c r="D303" s="6"/>
+      <c r="E303" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="21">
       <c r="A304">
         <v>299</v>
       </c>
@@ -5951,11 +6284,12 @@
       <c r="C304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D304" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="21">
+      <c r="D304" s="6"/>
+      <c r="E304" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="21">
       <c r="A305">
         <v>300</v>
       </c>
@@ -5965,11 +6299,12 @@
       <c r="C305" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D305" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="21">
+      <c r="D305" s="6"/>
+      <c r="E305" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="21">
       <c r="A306">
         <v>301</v>
       </c>
@@ -5979,11 +6314,12 @@
       <c r="C306" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D306" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="21">
+      <c r="D306" s="6"/>
+      <c r="E306" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="21">
       <c r="A307">
         <v>302</v>
       </c>
@@ -5993,11 +6329,12 @@
       <c r="C307" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D307" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="21">
+      <c r="D307" s="6"/>
+      <c r="E307" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="21">
       <c r="A308">
         <v>303</v>
       </c>
@@ -6007,11 +6344,12 @@
       <c r="C308" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D308" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="21">
+      <c r="D308" s="6"/>
+      <c r="E308" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="21">
       <c r="A309">
         <v>304</v>
       </c>
@@ -6021,11 +6359,12 @@
       <c r="C309" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D309" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="21">
+      <c r="D309" s="9"/>
+      <c r="E309" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="21">
       <c r="A310">
         <v>305</v>
       </c>
@@ -6035,11 +6374,12 @@
       <c r="C310" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D310" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="21">
+      <c r="D310" s="6"/>
+      <c r="E310" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="21">
       <c r="A311">
         <v>306</v>
       </c>
@@ -6049,11 +6389,12 @@
       <c r="C311" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D311" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="21">
+      <c r="D311" s="6"/>
+      <c r="E311" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="21">
       <c r="A312">
         <v>307</v>
       </c>
@@ -6063,11 +6404,12 @@
       <c r="C312" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D312" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="21">
+      <c r="D312" s="6"/>
+      <c r="E312" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="21">
       <c r="A313">
         <v>308</v>
       </c>
@@ -6077,11 +6419,12 @@
       <c r="C313" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D313" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="21">
+      <c r="D313" s="6"/>
+      <c r="E313" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="21">
       <c r="A314">
         <v>309</v>
       </c>
@@ -6091,11 +6434,12 @@
       <c r="C314" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D314" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="21">
+      <c r="D314" s="6"/>
+      <c r="E314" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="21">
       <c r="A315">
         <v>310</v>
       </c>
@@ -6105,11 +6449,12 @@
       <c r="C315" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D315" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="21">
+      <c r="D315" s="6"/>
+      <c r="E315" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="21">
       <c r="A316">
         <v>311</v>
       </c>
@@ -6119,11 +6464,12 @@
       <c r="C316" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D316" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="21">
+      <c r="D316" s="6"/>
+      <c r="E316" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="21">
       <c r="A317">
         <v>312</v>
       </c>
@@ -6133,11 +6479,12 @@
       <c r="C317" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D317" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="21">
+      <c r="D317" s="6"/>
+      <c r="E317" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="21">
       <c r="A318">
         <v>313</v>
       </c>
@@ -6147,11 +6494,12 @@
       <c r="C318" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="21">
+      <c r="D318" s="6"/>
+      <c r="E318" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="21">
       <c r="A319">
         <v>314</v>
       </c>
@@ -6161,11 +6509,12 @@
       <c r="C319" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D319" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="21">
+      <c r="D319" s="6"/>
+      <c r="E319" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="21">
       <c r="A320">
         <v>315</v>
       </c>
@@ -6175,11 +6524,12 @@
       <c r="C320" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D320" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="21">
+      <c r="D320" s="6"/>
+      <c r="E320" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="21">
       <c r="A321">
         <v>316</v>
       </c>
@@ -6189,11 +6539,12 @@
       <c r="C321" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D321" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="21">
+      <c r="D321" s="6"/>
+      <c r="E321" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="21">
       <c r="A322">
         <v>317</v>
       </c>
@@ -6203,11 +6554,12 @@
       <c r="C322" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="21">
+      <c r="D322" s="6"/>
+      <c r="E322" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="21">
       <c r="A323">
         <v>318</v>
       </c>
@@ -6217,11 +6569,12 @@
       <c r="C323" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D323" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="21">
+      <c r="D323" s="6"/>
+      <c r="E323" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="21">
       <c r="A324">
         <v>319</v>
       </c>
@@ -6231,11 +6584,12 @@
       <c r="C324" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D324" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="21">
+      <c r="D324" s="6"/>
+      <c r="E324" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="21">
       <c r="A325">
         <v>320</v>
       </c>
@@ -6245,11 +6599,12 @@
       <c r="C325" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D325" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="21">
+      <c r="D325" s="6"/>
+      <c r="E325" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="21">
       <c r="A326">
         <v>321</v>
       </c>
@@ -6259,11 +6614,12 @@
       <c r="C326" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D326" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="21">
+      <c r="D326" s="6"/>
+      <c r="E326" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="21">
       <c r="A327">
         <v>322</v>
       </c>
@@ -6273,11 +6629,12 @@
       <c r="C327" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D327" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="21">
+      <c r="D327" s="6"/>
+      <c r="E327" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="21">
       <c r="A328">
         <v>323</v>
       </c>
@@ -6287,11 +6644,12 @@
       <c r="C328" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D328" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="21">
+      <c r="D328" s="6"/>
+      <c r="E328" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="21">
       <c r="A329">
         <v>324</v>
       </c>
@@ -6301,11 +6659,12 @@
       <c r="C329" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D329" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="21">
+      <c r="D329" s="6"/>
+      <c r="E329" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="21">
       <c r="A330">
         <v>325</v>
       </c>
@@ -6315,11 +6674,12 @@
       <c r="C330" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D330" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="21">
+      <c r="D330" s="6"/>
+      <c r="E330" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="21">
       <c r="A331">
         <v>326</v>
       </c>
@@ -6329,11 +6689,12 @@
       <c r="C331" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D331" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="21">
+      <c r="D331" s="6"/>
+      <c r="E331" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="21">
       <c r="A332">
         <v>327</v>
       </c>
@@ -6343,11 +6704,12 @@
       <c r="C332" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D332" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="21">
+      <c r="D332" s="6"/>
+      <c r="E332" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="21">
       <c r="A333">
         <v>328</v>
       </c>
@@ -6357,25 +6719,28 @@
       <c r="C333" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="21">
+      <c r="D333" s="6"/>
+      <c r="E333" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="21">
       <c r="A334">
         <v>329</v>
       </c>
       <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="1:4" ht="21">
+      <c r="D334" s="7"/>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="1:5" ht="21">
       <c r="A335">
         <v>330</v>
       </c>
       <c r="C335" s="7"/>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="1:4" ht="21">
+      <c r="D335" s="7"/>
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" spans="1:5" ht="21">
       <c r="A336">
         <v>331</v>
       </c>
@@ -6385,11 +6750,12 @@
       <c r="C336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D336" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="21">
+      <c r="D336" s="6"/>
+      <c r="E336" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="21">
       <c r="A337">
         <v>332</v>
       </c>
@@ -6399,11 +6765,12 @@
       <c r="C337" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D337" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="21">
+      <c r="D337" s="6"/>
+      <c r="E337" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="21">
       <c r="A338">
         <v>333</v>
       </c>
@@ -6413,11 +6780,12 @@
       <c r="C338" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D338" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="21">
+      <c r="D338" s="6"/>
+      <c r="E338" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="21">
       <c r="A339">
         <v>334</v>
       </c>
@@ -6427,11 +6795,12 @@
       <c r="C339" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D339" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="21">
+      <c r="D339" s="6"/>
+      <c r="E339" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="21">
       <c r="A340">
         <v>335</v>
       </c>
@@ -6441,11 +6810,12 @@
       <c r="C340" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D340" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="21">
+      <c r="D340" s="6"/>
+      <c r="E340" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="21">
       <c r="A341">
         <v>336</v>
       </c>
@@ -6455,11 +6825,12 @@
       <c r="C341" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D341" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" ht="21">
+      <c r="D341" s="6"/>
+      <c r="E341" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="21">
       <c r="A342">
         <v>337</v>
       </c>
@@ -6469,11 +6840,12 @@
       <c r="C342" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D342" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" ht="21">
+      <c r="D342" s="6"/>
+      <c r="E342" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="21">
       <c r="A343">
         <v>338</v>
       </c>
@@ -6483,11 +6855,12 @@
       <c r="C343" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D343" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="21">
+      <c r="D343" s="6"/>
+      <c r="E343" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="21">
       <c r="A344">
         <v>339</v>
       </c>
@@ -6497,11 +6870,12 @@
       <c r="C344" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D344" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="21">
+      <c r="D344" s="9"/>
+      <c r="E344" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="21">
       <c r="A345">
         <v>340</v>
       </c>
@@ -6511,11 +6885,12 @@
       <c r="C345" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D345" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" ht="21">
+      <c r="D345" s="6"/>
+      <c r="E345" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="21">
       <c r="A346">
         <v>341</v>
       </c>
@@ -6525,11 +6900,12 @@
       <c r="C346" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D346" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="21">
+      <c r="D346" s="6"/>
+      <c r="E346" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="21">
       <c r="A347">
         <v>342</v>
       </c>
@@ -6539,11 +6915,12 @@
       <c r="C347" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D347" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="21">
+      <c r="D347" s="6"/>
+      <c r="E347" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="21">
       <c r="A348">
         <v>343</v>
       </c>
@@ -6553,11 +6930,12 @@
       <c r="C348" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D348" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="21">
+      <c r="D348" s="6"/>
+      <c r="E348" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="21">
       <c r="A349">
         <v>344</v>
       </c>
@@ -6567,11 +6945,12 @@
       <c r="C349" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D349" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="21">
+      <c r="D349" s="6"/>
+      <c r="E349" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="21">
       <c r="A350">
         <v>345</v>
       </c>
@@ -6581,11 +6960,12 @@
       <c r="C350" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D350" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="21">
+      <c r="D350" s="6"/>
+      <c r="E350" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="21">
       <c r="A351">
         <v>346</v>
       </c>
@@ -6595,11 +6975,12 @@
       <c r="C351" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D351" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="21">
+      <c r="D351" s="6"/>
+      <c r="E351" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="21">
       <c r="A352">
         <v>347</v>
       </c>
@@ -6609,11 +6990,12 @@
       <c r="C352" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D352" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="21">
+      <c r="D352" s="6"/>
+      <c r="E352" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="21">
       <c r="A353">
         <v>348</v>
       </c>
@@ -6623,25 +7005,28 @@
       <c r="C353" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" ht="21">
+      <c r="D353" s="6"/>
+      <c r="E353" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="21">
       <c r="A354">
         <v>349</v>
       </c>
       <c r="C354" s="7"/>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="1:4" ht="21">
+      <c r="D354" s="7"/>
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355" spans="1:5" ht="21">
       <c r="A355">
         <v>350</v>
       </c>
       <c r="C355" s="7"/>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="1:4" ht="21">
+      <c r="D355" s="7"/>
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356" spans="1:5" ht="21">
       <c r="A356">
         <v>351</v>
       </c>
@@ -6651,11 +7036,12 @@
       <c r="C356" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D356" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="21">
+      <c r="D356" s="6"/>
+      <c r="E356" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="21">
       <c r="A357">
         <v>352</v>
       </c>
@@ -6665,11 +7051,12 @@
       <c r="C357" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D357" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="21">
+      <c r="D357" s="6"/>
+      <c r="E357" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="21">
       <c r="A358">
         <v>353</v>
       </c>
@@ -6679,11 +7066,12 @@
       <c r="C358" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D358" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="21">
+      <c r="D358" s="6"/>
+      <c r="E358" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="21">
       <c r="A359">
         <v>354</v>
       </c>
@@ -6693,11 +7081,12 @@
       <c r="C359" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D359" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="21">
+      <c r="D359" s="6"/>
+      <c r="E359" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="21">
       <c r="A360">
         <v>355</v>
       </c>
@@ -6707,11 +7096,12 @@
       <c r="C360" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D360" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="21">
+      <c r="D360" s="6"/>
+      <c r="E360" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="21">
       <c r="A361">
         <v>356</v>
       </c>
@@ -6721,11 +7111,12 @@
       <c r="C361" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D361" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="21">
+      <c r="D361" s="6"/>
+      <c r="E361" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="21">
       <c r="A362">
         <v>357</v>
       </c>
@@ -6735,11 +7126,12 @@
       <c r="C362" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D362" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="21">
+      <c r="D362" s="6"/>
+      <c r="E362" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="21">
       <c r="A363">
         <v>358</v>
       </c>
@@ -6749,11 +7141,12 @@
       <c r="C363" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D363" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="21">
+      <c r="D363" s="6"/>
+      <c r="E363" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="21">
       <c r="A364">
         <v>359</v>
       </c>
@@ -6763,11 +7156,12 @@
       <c r="C364" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D364" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="21">
+      <c r="D364" s="6"/>
+      <c r="E364" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="21">
       <c r="A365">
         <v>360</v>
       </c>
@@ -6777,11 +7171,12 @@
       <c r="C365" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D365" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="21">
+      <c r="D365" s="6"/>
+      <c r="E365" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="21">
       <c r="A366">
         <v>361</v>
       </c>
@@ -6791,11 +7186,12 @@
       <c r="C366" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D366" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="21">
+      <c r="D366" s="6"/>
+      <c r="E366" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="21">
       <c r="A367">
         <v>362</v>
       </c>
@@ -6805,11 +7201,12 @@
       <c r="C367" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D367" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="21">
+      <c r="D367" s="6"/>
+      <c r="E367" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="21">
       <c r="A368">
         <v>363</v>
       </c>
@@ -6819,11 +7216,12 @@
       <c r="C368" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D368" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="21">
+      <c r="D368" s="6"/>
+      <c r="E368" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="21">
       <c r="A369">
         <v>364</v>
       </c>
@@ -6833,11 +7231,12 @@
       <c r="C369" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D369" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="21">
+      <c r="D369" s="6"/>
+      <c r="E369" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="21">
       <c r="A370">
         <v>365</v>
       </c>
@@ -6847,11 +7246,12 @@
       <c r="C370" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D370" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="21">
+      <c r="D370" s="6"/>
+      <c r="E370" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="21">
       <c r="A371">
         <v>366</v>
       </c>
@@ -6861,11 +7261,12 @@
       <c r="C371" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D371" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" ht="21">
+      <c r="D371" s="6"/>
+      <c r="E371" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="21">
       <c r="A372">
         <v>367</v>
       </c>
@@ -6875,11 +7276,12 @@
       <c r="C372" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D372" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="21">
+      <c r="D372" s="6"/>
+      <c r="E372" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="21">
       <c r="A373">
         <v>368</v>
       </c>
@@ -6889,11 +7291,12 @@
       <c r="C373" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D373" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="21">
+      <c r="D373" s="6"/>
+      <c r="E373" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="21">
       <c r="A374">
         <v>369</v>
       </c>
@@ -6903,11 +7306,12 @@
       <c r="C374" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D374" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="21">
+      <c r="D374" s="6"/>
+      <c r="E374" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="21">
       <c r="A375">
         <v>370</v>
       </c>
@@ -6917,11 +7321,12 @@
       <c r="C375" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D375" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="21">
+      <c r="D375" s="6"/>
+      <c r="E375" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="21">
       <c r="A376">
         <v>371</v>
       </c>
@@ -6931,11 +7336,12 @@
       <c r="C376" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D376" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="21">
+      <c r="D376" s="6"/>
+      <c r="E376" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="21">
       <c r="A377">
         <v>372</v>
       </c>
@@ -6945,11 +7351,12 @@
       <c r="C377" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D377" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" ht="21">
+      <c r="D377" s="6"/>
+      <c r="E377" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="21">
       <c r="A378">
         <v>373</v>
       </c>
@@ -6959,11 +7366,12 @@
       <c r="C378" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D378" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="21">
+      <c r="D378" s="6"/>
+      <c r="E378" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="21">
       <c r="A379">
         <v>374</v>
       </c>
@@ -6973,11 +7381,12 @@
       <c r="C379" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D379" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" ht="21">
+      <c r="D379" s="6"/>
+      <c r="E379" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="21">
       <c r="A380">
         <v>375</v>
       </c>
@@ -6987,11 +7396,12 @@
       <c r="C380" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D380" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" ht="21">
+      <c r="D380" s="6"/>
+      <c r="E380" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="21">
       <c r="A381">
         <v>376</v>
       </c>
@@ -7001,11 +7411,12 @@
       <c r="C381" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D381" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" ht="21">
+      <c r="D381" s="6"/>
+      <c r="E381" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="21">
       <c r="A382">
         <v>377</v>
       </c>
@@ -7015,11 +7426,12 @@
       <c r="C382" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D382" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="21">
+      <c r="D382" s="6"/>
+      <c r="E382" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="21">
       <c r="A383">
         <v>378</v>
       </c>
@@ -7029,11 +7441,12 @@
       <c r="C383" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D383" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="21">
+      <c r="D383" s="6"/>
+      <c r="E383" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="21">
       <c r="A384">
         <v>379</v>
       </c>
@@ -7043,11 +7456,12 @@
       <c r="C384" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D384" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" ht="21">
+      <c r="D384" s="6"/>
+      <c r="E384" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="21">
       <c r="A385">
         <v>380</v>
       </c>
@@ -7057,11 +7471,12 @@
       <c r="C385" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D385" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="21">
+      <c r="D385" s="6"/>
+      <c r="E385" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="21">
       <c r="A386">
         <v>381</v>
       </c>
@@ -7071,11 +7486,12 @@
       <c r="C386" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D386" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" ht="21">
+      <c r="D386" s="6"/>
+      <c r="E386" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="21">
       <c r="A387">
         <v>382</v>
       </c>
@@ -7085,11 +7501,12 @@
       <c r="C387" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D387" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" ht="21">
+      <c r="D387" s="6"/>
+      <c r="E387" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="21">
       <c r="A388">
         <v>383</v>
       </c>
@@ -7099,11 +7516,12 @@
       <c r="C388" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D388" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="21">
+      <c r="D388" s="6"/>
+      <c r="E388" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="21">
       <c r="A389">
         <v>384</v>
       </c>
@@ -7113,11 +7531,12 @@
       <c r="C389" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D389" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="21">
+      <c r="D389" s="6"/>
+      <c r="E389" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="21">
       <c r="A390">
         <v>385</v>
       </c>
@@ -7127,11 +7546,12 @@
       <c r="C390" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D390" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" ht="21">
+      <c r="D390" s="6"/>
+      <c r="E390" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="21">
       <c r="A391">
         <v>386</v>
       </c>
@@ -7141,11 +7561,12 @@
       <c r="C391" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D391" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" ht="21">
+      <c r="D391" s="6"/>
+      <c r="E391" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="21">
       <c r="A392">
         <v>387</v>
       </c>
@@ -7155,11 +7576,12 @@
       <c r="C392" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D392" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" ht="21">
+      <c r="D392" s="6"/>
+      <c r="E392" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="21">
       <c r="A393">
         <v>388</v>
       </c>
@@ -7169,11 +7591,12 @@
       <c r="C393" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D393" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" ht="21">
+      <c r="D393" s="6"/>
+      <c r="E393" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="21">
       <c r="A394">
         <v>389</v>
       </c>
@@ -7183,11 +7606,12 @@
       <c r="C394" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D394" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="21">
+      <c r="D394" s="6"/>
+      <c r="E394" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="21">
       <c r="A395">
         <v>390</v>
       </c>
@@ -7197,11 +7621,12 @@
       <c r="C395" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D395" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" ht="21">
+      <c r="D395" s="6"/>
+      <c r="E395" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="21">
       <c r="A396">
         <v>391</v>
       </c>
@@ -7211,11 +7636,12 @@
       <c r="C396" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D396" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" ht="21">
+      <c r="D396" s="6"/>
+      <c r="E396" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="21">
       <c r="A397">
         <v>392</v>
       </c>
@@ -7225,11 +7651,12 @@
       <c r="C397" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D397" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" ht="21">
+      <c r="D397" s="6"/>
+      <c r="E397" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="21">
       <c r="A398">
         <v>393</v>
       </c>
@@ -7239,11 +7666,12 @@
       <c r="C398" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D398" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" ht="21">
+      <c r="D398" s="6"/>
+      <c r="E398" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="21">
       <c r="A399">
         <v>394</v>
       </c>
@@ -7253,25 +7681,28 @@
       <c r="C399" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D399" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="21">
+      <c r="D399" s="6"/>
+      <c r="E399" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="21">
       <c r="A400">
         <v>395</v>
       </c>
       <c r="C400" s="7"/>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="1:4" ht="21">
+      <c r="D400" s="7"/>
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401" spans="1:5" ht="21">
       <c r="A401">
         <v>396</v>
       </c>
       <c r="C401" s="7"/>
-      <c r="D401" s="4"/>
-    </row>
-    <row r="402" spans="1:4" ht="21">
+      <c r="D401" s="7"/>
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402" spans="1:5" ht="21">
       <c r="A402">
         <v>397</v>
       </c>
@@ -7281,11 +7712,12 @@
       <c r="C402" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D402" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" ht="21">
+      <c r="D402" s="6"/>
+      <c r="E402" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="21">
       <c r="A403">
         <v>398</v>
       </c>
@@ -7295,11 +7727,12 @@
       <c r="C403" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D403" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="21">
+      <c r="D403" s="6"/>
+      <c r="E403" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="21">
       <c r="A404">
         <v>399</v>
       </c>
@@ -7309,11 +7742,12 @@
       <c r="C404" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D404" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" ht="21">
+      <c r="D404" s="6"/>
+      <c r="E404" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="21">
       <c r="A405">
         <v>400</v>
       </c>
@@ -7323,11 +7757,12 @@
       <c r="C405" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D405" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="21">
+      <c r="D405" s="6"/>
+      <c r="E405" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="21">
       <c r="A406">
         <v>401</v>
       </c>
@@ -7337,11 +7772,12 @@
       <c r="C406" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D406" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="21">
+      <c r="D406" s="6"/>
+      <c r="E406" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="21">
       <c r="A407">
         <v>402</v>
       </c>
@@ -7351,25 +7787,28 @@
       <c r="C407" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D407" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="21">
+      <c r="D407" s="6"/>
+      <c r="E407" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="21">
       <c r="A408">
         <v>403</v>
       </c>
       <c r="C408" s="7"/>
-      <c r="D408" s="4"/>
-    </row>
-    <row r="409" spans="1:4" ht="21">
+      <c r="D408" s="7"/>
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409" spans="1:5" ht="21">
       <c r="A409">
         <v>404</v>
       </c>
       <c r="C409" s="7"/>
-      <c r="D409" s="4"/>
-    </row>
-    <row r="410" spans="1:4" ht="21">
+      <c r="D409" s="7"/>
+      <c r="E409" s="4"/>
+    </row>
+    <row r="410" spans="1:5" ht="21">
       <c r="A410">
         <v>405</v>
       </c>
@@ -7379,11 +7818,12 @@
       <c r="C410" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" ht="21">
+      <c r="D410" s="6"/>
+      <c r="E410" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="21">
       <c r="A411">
         <v>406</v>
       </c>
@@ -7393,11 +7833,12 @@
       <c r="C411" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="21">
+      <c r="D411" s="6"/>
+      <c r="E411" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="21">
       <c r="A412">
         <v>407</v>
       </c>
@@ -7407,11 +7848,12 @@
       <c r="C412" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D412" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" ht="21">
+      <c r="D412" s="6"/>
+      <c r="E412" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="21">
       <c r="A413">
         <v>408</v>
       </c>
@@ -7421,11 +7863,12 @@
       <c r="C413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D413" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" ht="21">
+      <c r="D413" s="6"/>
+      <c r="E413" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="21">
       <c r="A414">
         <v>409</v>
       </c>
@@ -7435,11 +7878,12 @@
       <c r="C414" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D414" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" ht="21">
+      <c r="D414" s="6"/>
+      <c r="E414" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="21">
       <c r="A415">
         <v>410</v>
       </c>
@@ -7449,11 +7893,12 @@
       <c r="C415" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D415" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="21">
+      <c r="D415" s="6"/>
+      <c r="E415" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="21">
       <c r="A416">
         <v>411</v>
       </c>
@@ -7463,11 +7908,12 @@
       <c r="C416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D416" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" ht="21">
+      <c r="D416" s="6"/>
+      <c r="E416" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="21">
       <c r="A417">
         <v>412</v>
       </c>
@@ -7477,11 +7923,12 @@
       <c r="C417" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D417" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" ht="21">
+      <c r="D417" s="6"/>
+      <c r="E417" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="21">
       <c r="A418">
         <v>413</v>
       </c>
@@ -7491,11 +7938,12 @@
       <c r="C418" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D418" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" ht="21">
+      <c r="D418" s="6"/>
+      <c r="E418" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="21">
       <c r="A419">
         <v>414</v>
       </c>
@@ -7505,11 +7953,12 @@
       <c r="C419" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D419" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" ht="21">
+      <c r="D419" s="6"/>
+      <c r="E419" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="21">
       <c r="A420">
         <v>415</v>
       </c>
@@ -7519,11 +7968,12 @@
       <c r="C420" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D420" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" ht="21">
+      <c r="D420" s="6"/>
+      <c r="E420" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="21">
       <c r="A421">
         <v>416</v>
       </c>
@@ -7533,11 +7983,12 @@
       <c r="C421" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D421" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" ht="21">
+      <c r="D421" s="6"/>
+      <c r="E421" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="21">
       <c r="A422">
         <v>417</v>
       </c>
@@ -7547,11 +7998,12 @@
       <c r="C422" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D422" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" ht="21">
+      <c r="D422" s="6"/>
+      <c r="E422" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="21">
       <c r="A423">
         <v>418</v>
       </c>
@@ -7561,11 +8013,12 @@
       <c r="C423" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D423" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" ht="21">
+      <c r="D423" s="6"/>
+      <c r="E423" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="21">
       <c r="A424">
         <v>419</v>
       </c>
@@ -7575,11 +8028,12 @@
       <c r="C424" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D424" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" ht="21">
+      <c r="D424" s="6"/>
+      <c r="E424" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="21">
       <c r="A425">
         <v>420</v>
       </c>
@@ -7589,11 +8043,12 @@
       <c r="C425" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D425" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" ht="21">
+      <c r="D425" s="6"/>
+      <c r="E425" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="21">
       <c r="A426">
         <v>421</v>
       </c>
@@ -7603,11 +8058,12 @@
       <c r="C426" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D426" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" ht="21">
+      <c r="D426" s="6"/>
+      <c r="E426" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="21">
       <c r="A427">
         <v>422</v>
       </c>
@@ -7617,11 +8073,12 @@
       <c r="C427" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D427" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" ht="21">
+      <c r="D427" s="6"/>
+      <c r="E427" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="21">
       <c r="A428">
         <v>423</v>
       </c>
@@ -7631,11 +8088,12 @@
       <c r="C428" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D428" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" ht="21">
+      <c r="D428" s="6"/>
+      <c r="E428" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="21">
       <c r="A429">
         <v>424</v>
       </c>
@@ -7645,11 +8103,12 @@
       <c r="C429" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D429" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" ht="21">
+      <c r="D429" s="6"/>
+      <c r="E429" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="21">
       <c r="A430">
         <v>425</v>
       </c>
@@ -7659,11 +8118,12 @@
       <c r="C430" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D430" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" ht="21">
+      <c r="D430" s="6"/>
+      <c r="E430" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="21">
       <c r="A431">
         <v>426</v>
       </c>
@@ -7673,11 +8133,12 @@
       <c r="C431" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D431" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" ht="21">
+      <c r="D431" s="6"/>
+      <c r="E431" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="21">
       <c r="A432">
         <v>427</v>
       </c>
@@ -7687,11 +8148,12 @@
       <c r="C432" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D432" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" ht="21">
+      <c r="D432" s="6"/>
+      <c r="E432" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="21">
       <c r="A433">
         <v>428</v>
       </c>
@@ -7701,11 +8163,12 @@
       <c r="C433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D433" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" ht="21">
+      <c r="D433" s="6"/>
+      <c r="E433" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="21">
       <c r="A434">
         <v>429</v>
       </c>
@@ -7715,11 +8178,12 @@
       <c r="C434" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D434" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" ht="21">
+      <c r="D434" s="6"/>
+      <c r="E434" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="21">
       <c r="A435">
         <v>430</v>
       </c>
@@ -7729,11 +8193,12 @@
       <c r="C435" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D435" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" ht="21">
+      <c r="D435" s="6"/>
+      <c r="E435" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="21">
       <c r="A436">
         <v>431</v>
       </c>
@@ -7743,11 +8208,12 @@
       <c r="C436" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D436" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="21">
+      <c r="D436" s="6"/>
+      <c r="E436" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="21">
       <c r="A437">
         <v>432</v>
       </c>
@@ -7757,11 +8223,12 @@
       <c r="C437" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D437" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" ht="21">
+      <c r="D437" s="6"/>
+      <c r="E437" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="21">
       <c r="A438">
         <v>433</v>
       </c>
@@ -7771,11 +8238,12 @@
       <c r="C438" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D438" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" ht="21">
+      <c r="D438" s="6"/>
+      <c r="E438" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="21">
       <c r="A439">
         <v>434</v>
       </c>
@@ -7785,11 +8253,12 @@
       <c r="C439" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D439" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" ht="21">
+      <c r="D439" s="6"/>
+      <c r="E439" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="21">
       <c r="A440">
         <v>435</v>
       </c>
@@ -7799,11 +8268,12 @@
       <c r="C440" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D440" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" ht="21">
+      <c r="D440" s="6"/>
+      <c r="E440" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="21">
       <c r="A441">
         <v>436</v>
       </c>
@@ -7813,11 +8283,12 @@
       <c r="C441" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D441" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="21">
+      <c r="D441" s="6"/>
+      <c r="E441" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="21">
       <c r="A442">
         <v>437</v>
       </c>
@@ -7827,11 +8298,12 @@
       <c r="C442" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D442" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" ht="21">
+      <c r="D442" s="6"/>
+      <c r="E442" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="21">
       <c r="A443">
         <v>438</v>
       </c>
@@ -7841,11 +8313,12 @@
       <c r="C443" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D443" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" ht="21">
+      <c r="D443" s="6"/>
+      <c r="E443" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="21">
       <c r="A444">
         <v>439</v>
       </c>
@@ -7855,11 +8328,12 @@
       <c r="C444" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D444" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="21">
+      <c r="D444" s="6"/>
+      <c r="E444" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="21">
       <c r="A445">
         <v>440</v>
       </c>
@@ -7869,11 +8343,12 @@
       <c r="C445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D445" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" ht="21">
+      <c r="D445" s="6"/>
+      <c r="E445" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="21">
       <c r="A446">
         <v>441</v>
       </c>
@@ -7883,11 +8358,12 @@
       <c r="C446" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D446" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" ht="21">
+      <c r="D446" s="6"/>
+      <c r="E446" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="21">
       <c r="A447">
         <v>442</v>
       </c>
@@ -7897,11 +8373,12 @@
       <c r="C447" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D447" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" ht="21">
+      <c r="D447" s="6"/>
+      <c r="E447" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="21">
       <c r="A448">
         <v>443</v>
       </c>
@@ -7911,11 +8388,12 @@
       <c r="C448" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D448" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="21">
+      <c r="D448" s="6"/>
+      <c r="E448" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="21">
       <c r="A449">
         <v>444</v>
       </c>
@@ -7925,11 +8403,12 @@
       <c r="C449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D449" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" ht="21">
+      <c r="D449" s="6"/>
+      <c r="E449" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="21">
       <c r="A450">
         <v>445</v>
       </c>
@@ -7939,11 +8418,12 @@
       <c r="C450" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D450" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" ht="21">
+      <c r="D450" s="6"/>
+      <c r="E450" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="21">
       <c r="A451">
         <v>446</v>
       </c>
@@ -7953,11 +8433,12 @@
       <c r="C451" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D451" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" ht="21">
+      <c r="D451" s="6"/>
+      <c r="E451" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="21">
       <c r="A452">
         <v>447</v>
       </c>
@@ -7967,11 +8448,12 @@
       <c r="C452" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D452" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" ht="21">
+      <c r="D452" s="6"/>
+      <c r="E452" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="21">
       <c r="A453">
         <v>448</v>
       </c>
@@ -7981,11 +8463,12 @@
       <c r="C453" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D453" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" ht="21">
+      <c r="D453" s="6"/>
+      <c r="E453" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="21">
       <c r="A454">
         <v>449</v>
       </c>
@@ -7995,11 +8478,12 @@
       <c r="C454" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D454" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="21">
+      <c r="D454" s="6"/>
+      <c r="E454" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="21">
       <c r="A455">
         <v>450</v>
       </c>
@@ -8009,11 +8493,12 @@
       <c r="C455" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D455" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" ht="21">
+      <c r="D455" s="6"/>
+      <c r="E455" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="21">
       <c r="A456">
         <v>451</v>
       </c>
@@ -8023,11 +8508,12 @@
       <c r="C456" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D456" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" ht="21">
+      <c r="D456" s="6"/>
+      <c r="E456" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="21">
       <c r="A457">
         <v>452</v>
       </c>
@@ -8037,11 +8523,12 @@
       <c r="C457" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D457" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" ht="21">
+      <c r="D457" s="6"/>
+      <c r="E457" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="21">
       <c r="A458">
         <v>453</v>
       </c>
@@ -8051,11 +8538,12 @@
       <c r="C458" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D458" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" ht="21">
+      <c r="D458" s="6"/>
+      <c r="E458" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="21">
       <c r="A459">
         <v>454</v>
       </c>
@@ -8065,11 +8553,12 @@
       <c r="C459" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D459" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" ht="21">
+      <c r="D459" s="6"/>
+      <c r="E459" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="21">
       <c r="A460">
         <v>455</v>
       </c>
@@ -8079,11 +8568,12 @@
       <c r="C460" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D460" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="21">
+      <c r="D460" s="6"/>
+      <c r="E460" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="21">
       <c r="A461">
         <v>456</v>
       </c>
@@ -8093,11 +8583,12 @@
       <c r="C461" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D461" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" ht="21">
+      <c r="D461" s="6"/>
+      <c r="E461" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="21">
       <c r="A462">
         <v>457</v>
       </c>
@@ -8107,11 +8598,12 @@
       <c r="C462" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D462" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" ht="21">
+      <c r="D462" s="6"/>
+      <c r="E462" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="21">
       <c r="A463">
         <v>458</v>
       </c>
@@ -8121,11 +8613,12 @@
       <c r="C463" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D463" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="21">
+      <c r="D463" s="6"/>
+      <c r="E463" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="21">
       <c r="A464">
         <v>459</v>
       </c>
@@ -8135,11 +8628,12 @@
       <c r="C464" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D464" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" ht="21">
+      <c r="D464" s="6"/>
+      <c r="E464" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="21">
       <c r="A465">
         <v>460</v>
       </c>
@@ -8149,11 +8643,12 @@
       <c r="C465" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D465" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" ht="21">
+      <c r="D465" s="6"/>
+      <c r="E465" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="21">
       <c r="A466">
         <v>461</v>
       </c>
@@ -8163,11 +8658,12 @@
       <c r="C466" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D466" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" ht="21">
+      <c r="D466" s="6"/>
+      <c r="E466" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="21">
       <c r="A467">
         <v>462</v>
       </c>
@@ -8177,11 +8673,12 @@
       <c r="C467" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D467" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" ht="21">
+      <c r="D467" s="6"/>
+      <c r="E467" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="21">
       <c r="A468">
         <v>463</v>
       </c>
@@ -8191,11 +8688,12 @@
       <c r="C468" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D468" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" ht="21">
+      <c r="D468" s="6"/>
+      <c r="E468" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="21">
       <c r="A469">
         <v>464</v>
       </c>
@@ -8205,26 +8703,29 @@
       <c r="C469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D469" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" ht="21">
+      <c r="D469" s="6"/>
+      <c r="E469" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="21">
       <c r="A470">
         <v>465</v>
       </c>
       <c r="C470" s="7"/>
-      <c r="D470" s="4"/>
-    </row>
-    <row r="471" spans="1:4" ht="21">
+      <c r="D470" s="7"/>
+      <c r="E470" s="4"/>
+    </row>
+    <row r="471" spans="1:5" ht="21">
       <c r="A471">
         <v>466</v>
       </c>
       <c r="B471" s="8"/>
       <c r="C471" s="7"/>
-      <c r="D471" s="4"/>
-    </row>
-    <row r="472" spans="1:4" ht="21">
+      <c r="D471" s="7"/>
+      <c r="E471" s="4"/>
+    </row>
+    <row r="472" spans="1:5" ht="21">
       <c r="A472">
         <v>467</v>
       </c>
@@ -8234,11 +8735,12 @@
       <c r="C472" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D472" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="21">
+      <c r="D472" s="6"/>
+      <c r="E472" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="21">
       <c r="A473">
         <v>468</v>
       </c>
@@ -8248,11 +8750,12 @@
       <c r="C473" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D473" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" ht="21">
+      <c r="D473" s="6"/>
+      <c r="E473" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="21">
       <c r="A474">
         <v>469</v>
       </c>
@@ -8262,11 +8765,12 @@
       <c r="C474" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D474" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" ht="21">
+      <c r="D474" s="6"/>
+      <c r="E474" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="21">
       <c r="A475">
         <v>470</v>
       </c>
@@ -8276,11 +8780,12 @@
       <c r="C475" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" ht="21">
+      <c r="D475" s="6"/>
+      <c r="E475" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="21">
       <c r="A476">
         <v>471</v>
       </c>
@@ -8290,11 +8795,12 @@
       <c r="C476" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D476" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" ht="21">
+      <c r="D476" s="6"/>
+      <c r="E476" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="21">
       <c r="A477">
         <v>472</v>
       </c>
@@ -8304,11 +8810,12 @@
       <c r="C477" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D477" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" ht="21">
+      <c r="D477" s="6"/>
+      <c r="E477" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="21">
       <c r="A478">
         <v>473</v>
       </c>
@@ -8318,11 +8825,12 @@
       <c r="C478" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" ht="21">
+      <c r="D478" s="6"/>
+      <c r="E478" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="21">
       <c r="A479">
         <v>474</v>
       </c>
@@ -8332,11 +8840,12 @@
       <c r="C479" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D479" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" ht="21">
+      <c r="D479" s="6"/>
+      <c r="E479" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="21">
       <c r="A480">
         <v>475</v>
       </c>
@@ -8346,11 +8855,12 @@
       <c r="C480" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" ht="21">
+      <c r="D480" s="6"/>
+      <c r="E480" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="21">
       <c r="A481">
         <v>476</v>
       </c>
@@ -8360,7 +8870,8 @@
       <c r="C481" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D481" s="4" t="s">
+      <c r="D481" s="6"/>
+      <c r="E481" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8814,5 +9325,6 @@
     <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\datastructure-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BB68D-8561-4F7F-A381-C27F9BD98168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBA264-EEA1-41BE-8E84-940C10ADA3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$53</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,13 +1427,100 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>https://takeuforward.org/interviews/strivers-sde-sheet-top-coding-interview-problems/</t>
+  </si>
+  <si>
+    <t>Day-1</t>
+  </si>
+  <si>
+    <t>Day-2</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>Day-5</t>
+  </si>
+  <si>
+    <t>Day-6</t>
+  </si>
+  <si>
+    <t>Day-7</t>
+  </si>
+  <si>
+    <t>Day-8</t>
+  </si>
+  <si>
+    <t>Day-9</t>
+  </si>
+  <si>
+    <t>Day-10</t>
+  </si>
+  <si>
+    <t>Day-11</t>
+  </si>
+  <si>
+    <t>Day-12</t>
+  </si>
+  <si>
+    <t>Day-13</t>
+  </si>
+  <si>
+    <t>Day-14</t>
+  </si>
+  <si>
+    <t>Day-15</t>
+  </si>
+  <si>
+    <t>Day-16</t>
+  </si>
+  <si>
+    <t>Day-17</t>
+  </si>
+  <si>
+    <t>Day-18</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Day-19</t>
+  </si>
+  <si>
+    <t>Day-20</t>
+  </si>
+  <si>
+    <t>Day-21</t>
+  </si>
+  <si>
+    <t>Day-22</t>
+  </si>
+  <si>
+    <t>Day-23</t>
+  </si>
+  <si>
+    <t>Day-24</t>
+  </si>
+  <si>
+    <t>Day-25</t>
+  </si>
+  <si>
+    <t>Day-26</t>
+  </si>
+  <si>
+    <t>Day-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,6 +1588,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1522,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,6 +1641,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1864,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9327,4 +9424,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FC59BA-A53F-4257-8DCE-91B369A5B348}">
+  <dimension ref="B2:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>